--- a/tradept/Excel/Localization/english/Q全局BUFF表_GlobalBuffs_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/Q全局BUFF表_GlobalBuffs_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E797C4FA-07CF-4414-8C78-CCED6E8A4C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E27D0C-78E7-4D65-8886-ACDF528A569C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="313">
   <si>
     <t>ID</t>
   </si>
@@ -177,9 +177,6 @@
     <t>进攻进阶</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>进攻大师</t>
   </si>
   <si>
@@ -267,9 +264,6 @@
     <t>闪避进阶</t>
   </si>
   <si>
-    <t>Evade II</t>
-  </si>
-  <si>
     <t>闪避大师</t>
   </si>
   <si>
@@ -465,15 +459,9 @@
     <t>滴水不漏</t>
   </si>
   <si>
-    <t>Impenetrable</t>
-  </si>
-  <si>
     <t>奇妙药剂</t>
   </si>
   <si>
-    <t>Panacea</t>
-  </si>
-  <si>
     <t>欢乐酒宴</t>
   </si>
   <si>
@@ -543,436 +531,445 @@
     <t>战斗中我军编队受重伤概率降低20%</t>
   </si>
   <si>
-    <t>Exilio</t>
-  </si>
-  <si>
-    <t>Sangrar</t>
-  </si>
-  <si>
-    <t>Veneno</t>
-  </si>
-  <si>
-    <t>Mojar</t>
-  </si>
-  <si>
-    <t>Antorcha</t>
-  </si>
-  <si>
-    <t>Frío</t>
-  </si>
-  <si>
-    <t>Caliente</t>
-  </si>
-  <si>
-    <t>Congelando</t>
-  </si>
-  <si>
-    <t>Abrasador</t>
-  </si>
-  <si>
-    <t>Noche</t>
-  </si>
-  <si>
-    <t>Se busca</t>
-  </si>
-  <si>
-    <t>Lluvia</t>
-  </si>
-  <si>
-    <t>Defensa</t>
-  </si>
-  <si>
     <t>Ataque</t>
   </si>
   <si>
-    <t>Velocidad</t>
-  </si>
-  <si>
-    <t>Espera</t>
-  </si>
-  <si>
-    <t>Frenesí</t>
-  </si>
-  <si>
     <t>Acelerar</t>
   </si>
   <si>
-    <t>Sabiduría</t>
-  </si>
-  <si>
     <t>Ataque II</t>
   </si>
   <si>
     <t>Ataque III</t>
   </si>
   <si>
-    <t>Marcha lenta</t>
-  </si>
-  <si>
-    <t>Inspirar moral</t>
-  </si>
-  <si>
-    <t>Regeneración de salud</t>
-  </si>
-  <si>
-    <t>Regeneración de maná</t>
-  </si>
-  <si>
     <t>Ataque I</t>
   </si>
   <si>
-    <t>Defensa I</t>
-  </si>
-  <si>
-    <t>Agilidad</t>
-  </si>
-  <si>
-    <t>Enfoque crítico</t>
-  </si>
-  <si>
-    <t>Defensa II</t>
-  </si>
-  <si>
-    <t>Defensa III</t>
-  </si>
-  <si>
-    <t>Bloque I</t>
-  </si>
-  <si>
-    <t>Bloque II</t>
-  </si>
-  <si>
-    <t>Bloque III</t>
-  </si>
-  <si>
-    <t>Evadir I</t>
-  </si>
-  <si>
-    <t>Evadir III</t>
-  </si>
-  <si>
-    <t>Golpeé yo</t>
-  </si>
-  <si>
-    <t>Golpe II</t>
-  </si>
-  <si>
-    <t>Velocidad I</t>
-  </si>
-  <si>
-    <t>Velocidad II</t>
-  </si>
-  <si>
-    <t>Escudo de inicio</t>
-  </si>
-  <si>
-    <t>Aturdir I</t>
-  </si>
-  <si>
-    <t>Aturdir II</t>
-  </si>
-  <si>
-    <t>Aturdir III</t>
-  </si>
-  <si>
-    <t>Terror I. Traducción: Terror I</t>
-  </si>
-  <si>
-    <t>Confundir I</t>
-  </si>
-  <si>
-    <t>Confundir II</t>
-  </si>
-  <si>
-    <t>Confundir III</t>
-  </si>
-  <si>
-    <t>Enfriamiento I</t>
-  </si>
-  <si>
-    <t>Tiempo de espera II</t>
-  </si>
-  <si>
-    <t>Tiempo de espera III</t>
-  </si>
-  <si>
-    <t>Recuperación de combate</t>
-  </si>
-  <si>
-    <t>Batalla Veneno</t>
-  </si>
-  <si>
-    <t>Regeneración de durabilidad</t>
-  </si>
-  <si>
-    <t>Mejorar</t>
-  </si>
-  <si>
-    <t>Mejorar II</t>
-  </si>
-  <si>
-    <t>Mejorar III</t>
-  </si>
-  <si>
-    <t>Suministros I</t>
-  </si>
-  <si>
-    <t>Suministros II</t>
-  </si>
-  <si>
-    <t>Suministros III</t>
-  </si>
-  <si>
-    <t>Debilitar Ataque I</t>
-  </si>
-  <si>
-    <t>Debilitar Ataque II</t>
-  </si>
-  <si>
-    <t>Debilitar Ataque III</t>
-  </si>
-  <si>
-    <t>Mejorar Daño I</t>
-  </si>
-  <si>
-    <t>Mejorar Daño II</t>
-  </si>
-  <si>
-    <t>Mejorar Daño III</t>
-  </si>
-  <si>
-    <t>Debilitar Golpe I</t>
-  </si>
-  <si>
-    <t>Debilitar Golpe II</t>
-  </si>
-  <si>
-    <t>Debilitar Golpe III</t>
-  </si>
-  <si>
-    <t>Debilitar Velocidad I</t>
-  </si>
-  <si>
-    <t>Debilitar Velocidad II</t>
-  </si>
-  <si>
-    <t>Debilitar Velocidad III</t>
-  </si>
-  <si>
-    <t>Debilitación de Aturdimiento I</t>
-  </si>
-  <si>
-    <t>Debilitación Aturdir II</t>
-  </si>
-  <si>
-    <t>Debilitación Aturdir III</t>
-  </si>
-  <si>
-    <t>Debilidad de Terror I</t>
-  </si>
-  <si>
-    <t>Debilidad al Terror II</t>
-  </si>
-  <si>
-    <t>Debilidad al Terror III</t>
-  </si>
-  <si>
-    <t>Debilitación de Confusión I</t>
-  </si>
-  <si>
-    <t>Debilidad de Confusión II</t>
-  </si>
-  <si>
-    <t>Debilidad de Confusión III</t>
-  </si>
-  <si>
-    <t>Aumentar tiempo de espera I</t>
-  </si>
-  <si>
-    <t>Aumentar Tiempo de Espera II</t>
-  </si>
-  <si>
-    <t>Aumentar Enfriamiento III</t>
-  </si>
-  <si>
-    <t>Mejorar Debuff I</t>
-  </si>
-  <si>
-    <t>Mejorar Debuff II</t>
-  </si>
-  <si>
-    <t>Mejorar Debuff III</t>
-  </si>
-  <si>
-    <t>Debuff de Suministros I</t>
-  </si>
-  <si>
-    <t>Debilitación de Suministros II</t>
-  </si>
-  <si>
-    <t>Debilitación de Suministros III</t>
-  </si>
-  <si>
-    <t>Baja moral</t>
-  </si>
-  <si>
-    <t>Moral colapsado</t>
-  </si>
-  <si>
-    <t>Golpes salvajes</t>
-  </si>
-  <si>
-    <t>Asalto Berserk</t>
-  </si>
-  <si>
     <t>Barricada</t>
   </si>
   <si>
-    <t>Reposo Alegre</t>
-  </si>
-  <si>
-    <t>La noche cae</t>
-  </si>
-  <si>
-    <t>Viento en popa</t>
-  </si>
-  <si>
-    <t>Gas venenoso</t>
-  </si>
-  <si>
-    <t>Mejorar el ataque</t>
-  </si>
-  <si>
-    <t>Mejorar Crítico</t>
-  </si>
-  <si>
-    <t>Mejorar la defensa</t>
-  </si>
-  <si>
-    <t>Mejorar Bloque</t>
-  </si>
-  <si>
-    <t>Mejorar Evadir</t>
-  </si>
-  <si>
-    <t>Hielo</t>
-  </si>
-  <si>
-    <t>Naturaleza</t>
-  </si>
-  <si>
     <t>Centauro</t>
   </si>
   <si>
-    <t>Bestia</t>
-  </si>
-  <si>
-    <t>Legendario</t>
-  </si>
-  <si>
-    <t>Volando</t>
-  </si>
-  <si>
-    <t>A distancia</t>
-  </si>
-  <si>
-    <t>Combate cuerpo a cuerpo</t>
-  </si>
-  <si>
-    <t>Caballería</t>
-  </si>
-  <si>
-    <t>corazón sanador</t>
-  </si>
-  <si>
-    <t>Has sido exiliado y no serás objetivo de los enemigos</t>
-  </si>
-  <si>
-    <t>Estás sangrando. ¡Cura tus heridas, de lo contrario tu salud seguirá disminuyendo!</t>
-  </si>
-  <si>
-    <t>Estás envenenado. Cúrate a ti mismo, ¡de lo contrario tu salud seguirá disminuyendo!</t>
-  </si>
-  <si>
-    <t>Estás mojado. Tu resistencia al veneno se reduce</t>
-  </si>
-  <si>
-    <t>¡Los animales son ahuyentados por tu antorcha pero los bandidos podrían apuntarte a ti!</t>
-  </si>
-  <si>
-    <t>Estás frío. Tu velocidad de movimiento se reduce y tu nivel de hambre disminuye más rápidamente</t>
-  </si>
-  <si>
-    <t>Eres caliente. Tu nivel de hidratación está disminuyendo más rápidamente</t>
-  </si>
-  <si>
-    <t>Estás extremadamente frío. Tu salud está disminuyendo con el tiempo</t>
-  </si>
-  <si>
-    <t>Eres extremadamente atractivo. Tu salud está disminuyendo con el tiempo</t>
-  </si>
-  <si>
-    <t>La noche ha caído. ¡El peligro está en todas partes!</t>
-  </si>
-  <si>
-    <t>¡El Sol Negro se levanta! ¡Ten cuidado!</t>
-  </si>
-  <si>
-    <t>Eres uno de los más buscados por Salzaar. ¡Ten cuidado con los guardias patrullando!</t>
-  </si>
-  <si>
-    <t>Las tasas de regeneración para todo tu grupo se incrementan</t>
-  </si>
-  <si>
-    <t>Aumenta la Defensa de todo tu grupo en un 30% durante la batalla</t>
-  </si>
-  <si>
-    <t>Aumenta el Ataque de todo tu grupo en un 30% durante la batalla</t>
-  </si>
-  <si>
-    <t>Aumenta la Velocidad de Movimiento de todo tu grupo en 150 durante la batalla</t>
-  </si>
-  <si>
-    <t>Aumenta la Defensa de todo tu grupo en un 50% durante la batalla</t>
-  </si>
-  <si>
-    <t>Aumenta el Ataque de todo tu grupo en un 50% durante la batalla</t>
-  </si>
-  <si>
-    <t>Aumenta la Velocidad de Movimiento de todo tu grupo en 200 durante la batalla</t>
-  </si>
-  <si>
-    <t>Aumentar la EXP ganada en las batallas en un 100%</t>
-  </si>
-  <si>
-    <t>Todos los miembros del partido: Velocidad del mapa -500</t>
-  </si>
-  <si>
-    <t>Todos los miembros del partido: Velocidad del mapa -100</t>
-  </si>
-  <si>
-    <t>Aumenta la Regeneración de Salud de todo tu grupo en un 15% y el Ataque en un 10% durante la batalla</t>
-  </si>
-  <si>
-    <t>Aumenta la regeneración de salud de todo tu grupo en 25 por segundo durante la batalla</t>
-  </si>
-  <si>
-    <t>Aumenta la regeneración de maná de todo tu grupo en 5 por segundo durante la batalla</t>
-  </si>
-  <si>
-    <t>Aumenta el Ataque de todo tu grupo en un 10% durante la batalla</t>
-  </si>
-  <si>
-    <t>Aumenta la Defensa de todo tu grupo en un 3% durante la batalla</t>
-  </si>
-  <si>
-    <t>Aumenta la Evasión de todo tu grupo en un 20% durante la batalla</t>
-  </si>
-  <si>
-    <t>Aumenta la tasa de crítico de todo tu grupo en un 15% durante la batalla</t>
-  </si>
-  <si>
-    <t>Durante la batalla, la probabilidad de que nuestra formación resulte gravemente herida se reduce en un 20%</t>
+    <t>Exílio</t>
+  </si>
+  <si>
+    <t>Você foi exilado e não será alvo de inimigos.</t>
+  </si>
+  <si>
+    <t>Sangramento</t>
+  </si>
+  <si>
+    <t>Você está sangrando. Cure suas feridas - caso contrário, sua Vida continuará diminuindo!</t>
+  </si>
+  <si>
+    <t>Envenenamento</t>
+  </si>
+  <si>
+    <t>Você está envenenado. Cure-se - caso contrário, sua Vida continuará diminuindo!</t>
+  </si>
+  <si>
+    <t>Molhado</t>
+  </si>
+  <si>
+    <t>Você está molhado. Sua resistência ao Veneno está reduzida.</t>
+  </si>
+  <si>
+    <t>Tocha</t>
+  </si>
+  <si>
+    <t>Animais são afugentados pela sua tocha, mas bandidos podem mirar em você!</t>
+  </si>
+  <si>
+    <t>Frio</t>
+  </si>
+  <si>
+    <t>Você está com frio. Sua Velocidade de Movimento está reduzida e seu nível de Fome está diminuindo mais rapidamente.</t>
+  </si>
+  <si>
+    <t>Quente</t>
+  </si>
+  <si>
+    <t>Você está com calor. Seu nível de Hidratação está diminuindo mais rapidamente.</t>
+  </si>
+  <si>
+    <t>Congelamento</t>
+  </si>
+  <si>
+    <t>Você está extremamente frio. Sua Vida está diminuindo ao longo do tempo.</t>
+  </si>
+  <si>
+    <t>Escaldante</t>
+  </si>
+  <si>
+    <t>Você está extremamente quente. Sua Vida está diminuindo ao longo do tempo.</t>
+  </si>
+  <si>
+    <t>Noite</t>
+  </si>
+  <si>
+    <t>A noite chegou. O perigo está por toda parte!</t>
+  </si>
+  <si>
+    <t>O Sol Negro está se erguendo! Tenha cuidado!</t>
+  </si>
+  <si>
+    <t>Procurado</t>
+  </si>
+  <si>
+    <t>Você é um dos mais procurados de Salzaar. Cuidado com os guardas em patrulha!</t>
+  </si>
+  <si>
+    <t>Regeneração</t>
+  </si>
+  <si>
+    <t>As taxas de regeneração para toda a sua equipe aumentam.</t>
+  </si>
+  <si>
+    <t>Defesa</t>
+  </si>
+  <si>
+    <t>Aumente a Defesa de toda a sua equipe em 30% na batalha.</t>
+  </si>
+  <si>
+    <t>Aumente o Ataque de toda a sua equipe em 30% na batalha.</t>
+  </si>
+  <si>
+    <t>Velocidade</t>
+  </si>
+  <si>
+    <t>Aumente a Velocidade de Movimento de toda a sua equipe em 150 na batalha.</t>
+  </si>
+  <si>
+    <t>Manter</t>
+  </si>
+  <si>
+    <t>Aumente a Defesa de toda a sua equipe em 50% na batalha.</t>
+  </si>
+  <si>
+    <t>Frenesi</t>
+  </si>
+  <si>
+    <t>Aumente o Ataque de toda a sua equipe em 50% na batalha.</t>
+  </si>
+  <si>
+    <t>Aumente a Velocidade de Movimento de toda a sua equipe em 200 na batalha.</t>
+  </si>
+  <si>
+    <t>Sabedoria</t>
+  </si>
+  <si>
+    <t>Aumente a EXP obtida das batalhas em 100%.</t>
+  </si>
+  <si>
+    <t>Marcha Lenta</t>
+  </si>
+  <si>
+    <t>Todos os membros da equipe: Velocidade no Mapa -500.</t>
+  </si>
+  <si>
+    <t>Todos os membros da equipe: Velocidade no Mapa -100.</t>
+  </si>
+  <si>
+    <t>Inspirar Moral</t>
+  </si>
+  <si>
+    <t>Aumente a Regeneração de Vida de toda a sua equipe em 15 e o Ataque em 10% na batalha.</t>
+  </si>
+  <si>
+    <t>Regeneração de Vida</t>
+  </si>
+  <si>
+    <t>Aumente a Regeneração de Vida de toda a sua equipe em 25/s na batalha.</t>
+  </si>
+  <si>
+    <t>Regeneração de Mana</t>
+  </si>
+  <si>
+    <t>Aumente a Regeneração de Mana de toda a sua equipe em 5/s na batalha.</t>
+  </si>
+  <si>
+    <t>Aumente o Ataque de toda a sua equipe em 10% na batalha.</t>
+  </si>
+  <si>
+    <t>Defesa I</t>
+  </si>
+  <si>
+    <t>Aumente a Defesa de toda a sua equipe em 3% na batalha.</t>
+  </si>
+  <si>
+    <t>Agilidade</t>
+  </si>
+  <si>
+    <t>Aumente a Esquiva de toda a sua equipe em 20% na batalha.</t>
+  </si>
+  <si>
+    <t>Foco Crítico</t>
+  </si>
+  <si>
+    <t>Aumente a Taxa de Crítico de toda a sua equipe em 15% na batalha.</t>
+  </si>
+  <si>
+    <t>Defesa II</t>
+  </si>
+  <si>
+    <t>Defesa III</t>
+  </si>
+  <si>
+    <t>Bloqueio I</t>
+  </si>
+  <si>
+    <t>Bloqueio II</t>
+  </si>
+  <si>
+    <t>Bloqueio III</t>
+  </si>
+  <si>
+    <t>Esquiva I</t>
+  </si>
+  <si>
+    <t>Esquiva II</t>
+  </si>
+  <si>
+    <t>Esquiva III</t>
+  </si>
+  <si>
+    <t>Acerto I</t>
+  </si>
+  <si>
+    <t>Acerto II</t>
+  </si>
+  <si>
+    <t>Velocidade I</t>
+  </si>
+  <si>
+    <t>Velocidade II</t>
+  </si>
+  <si>
+    <t>Escudo Inicial</t>
+  </si>
+  <si>
+    <t>Atordoar I</t>
+  </si>
+  <si>
+    <t>Atordoar II</t>
+  </si>
+  <si>
+    <t>Atordoar III</t>
+  </si>
+  <si>
+    <t>Terror I</t>
+  </si>
+  <si>
+    <t>Confusão I</t>
+  </si>
+  <si>
+    <t>Confusão II</t>
+  </si>
+  <si>
+    <t>Confusão III</t>
+  </si>
+  <si>
+    <t>Recarga I</t>
+  </si>
+  <si>
+    <t>Recarga II</t>
+  </si>
+  <si>
+    <t>Recarga III</t>
+  </si>
+  <si>
+    <t>Recuperação de Combate</t>
+  </si>
+  <si>
+    <t>Veneno de Batalha</t>
+  </si>
+  <si>
+    <t>Regeneração de Durabilidade</t>
+  </si>
+  <si>
+    <t>Aprimorar I</t>
+  </si>
+  <si>
+    <t>Aprimorar II</t>
+  </si>
+  <si>
+    <t>Aprimorar III</t>
+  </si>
+  <si>
+    <t>Suprimentos I</t>
+  </si>
+  <si>
+    <t>Suprimentos II</t>
+  </si>
+  <si>
+    <t>Suprimentos III</t>
+  </si>
+  <si>
+    <t>Enfraquecer Ataque I</t>
+  </si>
+  <si>
+    <t>Enfraquecer Ataque II</t>
+  </si>
+  <si>
+    <t>Enfraquecer Ataque III</t>
+  </si>
+  <si>
+    <t>Aprimorar Dano I</t>
+  </si>
+  <si>
+    <t>Aprimorar Dano II</t>
+  </si>
+  <si>
+    <t>Aprimorar Dano III</t>
+  </si>
+  <si>
+    <t>Enfraquecer Acerto I</t>
+  </si>
+  <si>
+    <t>Enfraquecer Acerto II</t>
+  </si>
+  <si>
+    <t>Enfraquecer Acerto III</t>
+  </si>
+  <si>
+    <t>Enfraquecer Velocidade I</t>
+  </si>
+  <si>
+    <t>Enfraquecer Velocidade II</t>
+  </si>
+  <si>
+    <t>Enfraquecer Velocidade III</t>
+  </si>
+  <si>
+    <t>Debuff de Atordoar I</t>
+  </si>
+  <si>
+    <t>Debuff de Atordoar II</t>
+  </si>
+  <si>
+    <t>Debuff de Atordoar III</t>
+  </si>
+  <si>
+    <t>Debuff de Terror I</t>
+  </si>
+  <si>
+    <t>Debuff de Terror II</t>
+  </si>
+  <si>
+    <t>Debuff de Terror III</t>
+  </si>
+  <si>
+    <t>Debuff de Confusão I</t>
+  </si>
+  <si>
+    <t>Debuff de Confusão II</t>
+  </si>
+  <si>
+    <t>Debuff de Confusão III</t>
+  </si>
+  <si>
+    <t>Aumentar Recarga I</t>
+  </si>
+  <si>
+    <t>Aumentar Recarga II</t>
+  </si>
+  <si>
+    <t>Aumentar Recarga III</t>
+  </si>
+  <si>
+    <t>Debuff de Aprimorar I</t>
+  </si>
+  <si>
+    <t>Debuff de Aprimorar II</t>
+  </si>
+  <si>
+    <t>Debuff de Aprimorar III</t>
+  </si>
+  <si>
+    <t>Debuff de Suprimentos I</t>
+  </si>
+  <si>
+    <t>Debuff de Suprimentos II</t>
+  </si>
+  <si>
+    <t>Debuff de Suprimentos III</t>
+  </si>
+  <si>
+    <t>Moral Baixa</t>
+  </si>
+  <si>
+    <t>Moral Colapsada</t>
+  </si>
+  <si>
+    <t>Ataques Selvagens</t>
+  </si>
+  <si>
+    <t>Assalto Berserk</t>
+  </si>
+  <si>
+    <t>Impenetrável</t>
+  </si>
+  <si>
+    <t>Panacéia</t>
+  </si>
+  <si>
+    <t>Reposição Alegre</t>
+  </si>
+  <si>
+    <t>Noite Cai</t>
+  </si>
+  <si>
+    <t>Guarda do Vento</t>
+  </si>
+  <si>
+    <t>Gás Venenoso</t>
+  </si>
+  <si>
+    <t>Aprimorar Ataque</t>
+  </si>
+  <si>
+    <t>Aprimorar Crítico</t>
+  </si>
+  <si>
+    <t>Aprimorar Defesa</t>
+  </si>
+  <si>
+    <t>Aprimorar Bloqueio</t>
+  </si>
+  <si>
+    <t>Aprimorar Esquiva</t>
+  </si>
+  <si>
+    <t>Gelo</t>
+  </si>
+  <si>
+    <t>Natureza</t>
+  </si>
+  <si>
+    <t>Besta</t>
+  </si>
+  <si>
+    <t>Lendário</t>
+  </si>
+  <si>
+    <t>Voador</t>
+  </si>
+  <si>
+    <t>À Distância</t>
+  </si>
+  <si>
+    <t>Corpo a Corpo</t>
+  </si>
+  <si>
+    <t>Cavalaria</t>
+  </si>
+  <si>
+    <t>coração curador</t>
+  </si>
+  <si>
+    <t>Durante a batalha, a probabilidade de nossa formação ser seriamente ferida é reduzida em 20%.</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1066,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1368,10 +1365,10 @@
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+      <selection activeCell="E102" sqref="A1:E123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -1390,7 +1387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1398,13 +1395,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>284</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="56.25" customHeight="1">
@@ -1415,13 +1412,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>285</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" customHeight="1">
@@ -1432,13 +1429,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1449,13 +1446,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1466,13 +1463,13 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>288</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1483,13 +1480,13 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>289</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1500,13 +1497,13 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>290</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1517,13 +1514,13 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>291</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1534,13 +1531,13 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>292</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1551,13 +1548,13 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>293</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1574,7 +1571,7 @@
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>294</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1585,13 +1582,13 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>295</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="33.75" customHeight="1">
@@ -1602,13 +1599,13 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>296</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" customHeight="1">
@@ -1619,13 +1616,13 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>297</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" customHeight="1">
@@ -1636,13 +1633,13 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>298</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="33.75" customHeight="1">
@@ -1653,13 +1650,13 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>299</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" customHeight="1">
@@ -1670,13 +1667,13 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" customHeight="1">
@@ -1687,13 +1684,13 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>301</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="33.75" customHeight="1">
@@ -1704,13 +1701,13 @@
         <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="33.75" customHeight="1">
@@ -1721,13 +1718,13 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1738,1496 +1735,1270 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>190</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" t="s">
-        <v>48</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:5" ht="54" customHeight="1">
       <c r="A24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
-        <v>191</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="E24" t="s">
-        <v>304</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="54" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>305</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="108" customHeight="1">
       <c r="A26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>192</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="E26" t="s">
-        <v>306</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="81" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>193</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="E27" t="s">
-        <v>307</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="81" customHeight="1">
       <c r="A28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>194</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="E28" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="67.5" customHeight="1">
       <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C29" t="s">
-        <v>195</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="E29" t="s">
-        <v>309</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="67.5" customHeight="1">
       <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
         <v>63</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C30" t="s">
-        <v>196</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="E30" t="s">
-        <v>310</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="67.5" customHeight="1">
       <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
         <v>66</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>222</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C31" t="s">
-        <v>197</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="E31" t="s">
-        <v>311</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="67.5" customHeight="1">
       <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>224</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" t="s">
-        <v>198</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
         <v>70</v>
       </c>
-      <c r="E32" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>226</v>
+      </c>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
         <v>71</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>71</v>
       </c>
-      <c r="C33" t="s">
-        <v>199</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
+      <c r="C34" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
         <v>72</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>72</v>
       </c>
-      <c r="C34" t="s">
-        <v>200</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
+      <c r="C35" t="s">
+        <v>228</v>
+      </c>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
         <v>73</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>73</v>
       </c>
-      <c r="C35" t="s">
-        <v>201</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
+      <c r="C36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>74</v>
       </c>
-      <c r="C36" t="s">
-        <v>202</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
+      <c r="C37" t="s">
+        <v>230</v>
+      </c>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
         <v>75</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>75</v>
       </c>
-      <c r="C37" t="s">
-        <v>203</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
+      <c r="C38" t="s">
+        <v>231</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>76</v>
       </c>
-      <c r="C38" t="s">
-        <v>204</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
+      <c r="C39" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
         <v>77</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>77</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
+        <v>233</v>
+      </c>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
         <v>79</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>79</v>
       </c>
-      <c r="C40" t="s">
-        <v>205</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
+      <c r="C42" t="s">
+        <v>235</v>
+      </c>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
         <v>80</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>80</v>
       </c>
-      <c r="C41" t="s">
-        <v>206</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
+      <c r="C43" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
         <v>81</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>81</v>
       </c>
-      <c r="C42" t="s">
-        <v>207</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
+      <c r="C44" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
         <v>82</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>82</v>
       </c>
-      <c r="C43" t="s">
-        <v>208</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
+      <c r="C45" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
         <v>83</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>83</v>
       </c>
-      <c r="C44" t="s">
-        <v>209</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
+      <c r="C46" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
         <v>84</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>84</v>
       </c>
-      <c r="C45" t="s">
-        <v>210</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
+      <c r="C47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
         <v>85</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>85</v>
       </c>
-      <c r="C46" t="s">
-        <v>211</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>212</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" t="s">
-        <v>87</v>
-      </c>
       <c r="C48" t="s">
-        <v>213</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>214</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C52" t="s">
-        <v>215</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s">
-        <v>216</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
-        <v>217</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>218</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>219</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C57" t="s">
-        <v>220</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>221</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s">
-        <v>222</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C60" t="s">
-        <v>223</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>224</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
-        <v>225</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s">
-        <v>226</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
-        <v>227</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D64" s="5"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>228</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>229</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>230</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="D67" s="5"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B68" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s">
-        <v>231</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="D68" s="5"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C69" t="s">
-        <v>232</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B70" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>233</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C71" t="s">
-        <v>234</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C72" t="s">
-        <v>235</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C73" t="s">
-        <v>236</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B74" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C74" t="s">
-        <v>237</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C75" t="s">
-        <v>238</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="D75" s="5"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C76" t="s">
-        <v>239</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="D76" s="5"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B77" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C77" t="s">
-        <v>240</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B78" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
-        <v>241</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="D78" s="5"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B79" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C79" t="s">
-        <v>242</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="D79" s="5"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C80" t="s">
-        <v>243</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C81" t="s">
-        <v>244</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="D81" s="5"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B82" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C82" t="s">
-        <v>245</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C83" t="s">
-        <v>246</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B84" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C84" t="s">
-        <v>247</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B85" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C85" t="s">
-        <v>248</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B86" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C86" t="s">
-        <v>249</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="D86" s="5"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B87" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C87" t="s">
-        <v>250</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B88" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C88" t="s">
-        <v>251</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="D88" s="5"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B89" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C89" t="s">
-        <v>252</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B90" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C90" t="s">
-        <v>253</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B91" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C91" t="s">
-        <v>254</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B92" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C92" t="s">
-        <v>255</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B93" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C93" t="s">
-        <v>256</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="D93" s="5"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B94" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C94" t="s">
-        <v>257</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B95" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C95" t="s">
-        <v>258</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="D95" s="5"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B96" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C96" t="s">
-        <v>259</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B97" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C97" t="s">
-        <v>260</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="D97" s="5"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B98" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C98" t="s">
-        <v>261</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B99" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C99" t="s">
-        <v>262</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B100" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C100" t="s">
-        <v>263</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D100" s="5"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B101" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C101" t="s">
-        <v>264</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B102" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C102" t="s">
-        <v>144</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="D102" s="5"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B103" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C103" t="s">
-        <v>146</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="D103" s="5"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B104" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C104" t="s">
-        <v>265</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B105" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C105" t="s">
-        <v>266</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B106" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C106" t="s">
-        <v>267</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B107" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C107" t="s">
-        <v>268</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="D107" s="5"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B108" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C108" t="s">
-        <v>269</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B109" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C109" t="s">
-        <v>270</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D109" s="5"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B110" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C110" t="s">
-        <v>271</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="D110" s="5"/>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B111" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C111" t="s">
-        <v>272</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D111" s="5"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B112" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C112" t="s">
-        <v>273</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="D112" s="5"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B113" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C113" t="s">
-        <v>157</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="D113" s="5"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B114" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C114" t="s">
-        <v>274</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="D114" s="5"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B115" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C115" t="s">
-        <v>275</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="D115" s="5"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B116" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C116" t="s">
-        <v>276</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D116" s="5"/>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B117" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C117" t="s">
-        <v>277</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="D117" s="5"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B118" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C118" t="s">
-        <v>278</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="D118" s="5"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B119" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C119" t="s">
-        <v>279</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="D119" s="5"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B120" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C120" t="s">
-        <v>280</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="D120" s="5"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B121" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C121" t="s">
-        <v>281</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="D121" s="5"/>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B122" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C122" t="s">
-        <v>282</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="D122" s="5"/>
     </row>
     <row r="123" spans="1:5" ht="54" customHeight="1">
       <c r="A123" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/english/Q全局BUFF表_GlobalBuffs_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/Q全局BUFF表_GlobalBuffs_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E27D0C-78E7-4D65-8886-ACDF528A569C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B096693-473E-4F35-AECD-842AFB31DA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1364,11 +1364,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
       <selection activeCell="E102" sqref="A1:E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="110.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -1387,7 +1392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
